--- a/02_data/cleandata/studylist_meta-analysis.xlsx
+++ b/02_data/cleandata/studylist_meta-analysis.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD98"/>
+  <dimension ref="A1:AD97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1797,6 +1797,56 @@
           <t>any use; CUD; no use; no CUD; NA</t>
         </is>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3740,6 +3790,56 @@
           <t>Severity of cannabis use, (1 = abstinent, 2 = use without impairment, 3 = abuse, 4 = dependence); Cannabis use frequency; Age at first use of cannabis; Substance use disorder; Cannabis use; Currently using cannabis; Every day; Socially Environment; During the day (Time of use); No use; No substance use disorder; No cannabis use; Past used cannabis; Once/twice per month to once/twice per year; Alone; During the evening or Frequently during the day and evening (Time of use); NA; Alcohol and Drug Use Scale (AUS/DUS) + Cannabis Use Questionnaire + SCID</t>
         </is>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6675,6 +6775,56 @@
           <t>current use; 1 year use; &gt;= 2 year use; test of linear trend; no use; 0 year use; NA; Substance Use Questionnaire</t>
         </is>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -7816,6 +7966,56 @@
           <t>Cannabis users by age 15 (3 times or more); Cannabis users by age 18 (3 times or more); NA; 1 or 2 times use; Self report</t>
         </is>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD58" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -8161,6 +8361,56 @@
       <c r="T61" t="inlineStr">
         <is>
           <t>used cannabis by age 14; &lt;5 times; 5-20 times; 21-60 times; &gt; 60 times; did not use cannabis by age 14; Never Used; NA</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD61" t="inlineStr">
+        <is>
+          <t>8</t>
         </is>
       </c>
     </row>
@@ -8786,6 +9036,56 @@
           <t>any use; no use; cross-sectional; longitudinal; NA; from baseline to 6 months; continued use; discontinued use; interview + urine analysis</t>
         </is>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD66" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9004,7 +9304,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ariashorcajadas_2002</t>
+          <t>barrowclough_2013</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -9024,12 +9324,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>cannabis use</t>
+          <t>continued use vs non-use; continued vs non use; continued vs non-use</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Zammit (2008)</t>
+          <t>Schoeler(2016); Schoeler (2016)</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -9039,32 +9339,32 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA; Yes</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Within RCT therapy; NA</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Does Change in Cannabis Use in Established Psychosis Affect Clinical Outcome</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>patients with a clinical diagnosis of a nonaffective psychotic disorder and a diagnosis of drug and or alcoholdependence or abuse recruited during a RCT single blind of a psychological intervention (treatment as usual vs motivational interviewing and cognitive behavioral therapy; NA</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>Johanna; NA</t>
+          <t>Johanna &amp; Molly; NA</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>in Zammit, aber nicht auffindbar online (+ auf spanish); NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
@@ -9074,19 +9374,69 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Non affective Psychosis; NA</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>any cannabis use (31%  cannabis dependence or abuse, mean frequency 4 days a week , 2.5g per day/5 joints); other drug use (no cannabis); NA; DSM-IV, TLFB Timeline follow-back selfreport + urine analysis</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD69" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>barrowclough_2013</t>
+          <t>barrowclough_2015</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -9096,7 +9446,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>symptoms; relapse</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -9106,12 +9456,12 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>continued use vs non-use; continued vs non use; continued vs non-use</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Schoeler(2016); Schoeler (2016)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -9121,27 +9471,27 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>NA; Yes</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>Within RCT therapy; NA</t>
+          <t>Is not the same cohort as in Barrowclough(2013); NA</t>
         </is>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Does Change in Cannabis Use in Established Psychosis Affect Clinical Outcome</t>
+          <t>The Impact of Cannabis Use on Clinical Outcomes in Recent Onset Psychosis</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>patients with a clinical diagnosis of a nonaffective psychotic disorder and a diagnosis of drug and or alcoholdependence or abuse recruited during a RCT single blind of a psychological intervention (treatment as usual vs motivational interviewing and cognitive behavioral therapy; NA</t>
+          <t>One hundred and ten participants who met diagnostic criteria for nonaffective psychotic disorder with comorbid cannabis abuse or dependence (DSM IV) were recruited from 5 Early Intervention Services in the North West of England, UK; NA</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Johanna &amp; Molly; NA</t>
+          <t>Johanna; NA</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -9156,19 +9506,69 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Non affective Psychosis; NA</t>
+          <t>non-affective psychotic disorder; NA</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>any cannabis use (31%  cannabis dependence or abuse, mean frequency 4 days a week , 2.5g per day/5 joints); other drug use (no cannabis); NA; DSM-IV, TLFB Timeline follow-back selfreport + urine analysis</t>
+          <t>NA; Timeline Followback (TLFB) method</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD70" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>barrowclough_2015</t>
+          <t>bergé_2016</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -9203,54 +9603,106 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>Is not the same cohort as in Barrowclough(2013); NA</t>
+          <t>In this paper, we have some row dat about baseline charcteristics (that I didn't extract) but not about longitudinal analysis; NA</t>
         </is>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>The Impact of Cannabis Use on Clinical Outcomes in Recent Onset Psychosis</t>
+          <t>Predictors of Relapse and Functioning in First-Episode Psychosis: A Two-Year Follow-Up Study</t>
         </is>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>One hundred and ten participants who met diagnostic criteria for nonaffective psychotic disorder with comorbid cannabis abuse or dependence (DSM IV) were recruited from 5 Early Intervention Services in the North West of England, UK; NA</t>
+          <t>Out-patients and inpatients from First-episode psychosis program in Barcelona; NA</t>
         </is>
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Johanna; NA</t>
+          <t>Carolina; NA</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA; Bergé D, Mané A, Salgado P, et al. Predictors of relapse and _x000D_
+functioning in first-episode psychosis: a two-year follow-up study. _x000D_
+Psychiatr Serv. 2016;67(2):227–233.</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>24 months; NA</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>non-affective psychotic disorder; NA</t>
+          <t>The largest diagnostic group at baseline was psychosis not otherwise specified (N=63, 45%), followed by schizophreniform disorder (N=38, 27%); brief psychotic disorder (N=15, 11%); affective psychosis (N=12, 9%), including bipolar disorder with psychotic symptoms and schizoaffective disorder; schizophrenia (N=7, 5%); drug-induced psychosis N=4, 3%); and delusional disorder (N=1, 1%). At two-year follow-up, affective psychosis was the largest diagnostic group (N=19, 44%), followed by schizophrenia (N=15, 33%), schizophreniform disorder (N=5, 11%), and brief psychotic disorder (N=5, 11%).; FEP</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>NA; Timeline Followback (TLFB) method</t>
+          <t>cannabis use (joints per week); none(continous); NA; since illness onset; from illness onset to follow-up; persistent use; self-report, family, urine drug-test</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD71" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>bergé_2016</t>
+          <t>clausen_2014</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -9285,22 +9737,22 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>In this paper, we have some row dat about baseline charcteristics (that I didn't extract) but not about longitudinal analysis; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Predictors of Relapse and Functioning in First-Episode Psychosis: A Two-Year Follow-Up Study</t>
+          <t>Change in cannabis use, clinical symptoms and social functioning among patients with first-episode psychosis: a 5-year follow-up study of patients in the OPUS trial</t>
         </is>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>Out-patients and inpatients from First-episode psychosis program in Barcelona; NA</t>
+          <t>Patients from OPUS trial (FEP patients); NA</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -9309,140 +9761,6 @@
         </is>
       </c>
       <c r="Q72" t="inlineStr">
-        <is>
-          <t>NA; Bergé D, Mané A, Salgado P, et al. Predictors of relapse and _x000D_
-functioning in first-episode psychosis: a two-year follow-up study. _x000D_
-Psychiatr Serv. 2016;67(2):227–233.</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>24 months; NA</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>The largest diagnostic group at baseline was psychosis not otherwise specified (N=63, 45%), followed by schizophreniform disorder (N=38, 27%); brief psychotic disorder (N=15, 11%); affective psychosis (N=12, 9%), including bipolar disorder with psychotic symptoms and schizoaffective disorder; schizophrenia (N=7, 5%); drug-induced psychosis N=4, 3%); and delusional disorder (N=1, 1%). At two-year follow-up, affective psychosis was the largest diagnostic group (N=19, 44%), followed by schizophrenia (N=15, 33%), schizophreniform disorder (N=5, 11%), and brief psychotic disorder (N=5, 11%).; FEP</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>cannabis use (joints per week); none(continous); NA; since illness onset; from illness onset to follow-up; persistent use; self-report, family, urine drug-test</t>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD72" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>clausen_2014</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>Psychosis Population</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>cannabis use</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>maybe</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Change in cannabis use, clinical symptoms and social functioning among patients with first-episode psychosis: a 5-year follow-up study of patients in the OPUS trial</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Patients from OPUS trial (FEP patients); NA</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Carolina; NA</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
         <is>
           <t>NA; Clausen L, Hjorthoj CR, Thorup A, et al. Change in cannabis use, _x000D_
 clinical symptoms and social functioning among patients with _x000D_
@@ -9450,125 +9768,125 @@
 OPUS trial. Psychol Med. 2014;44(1):117–126.</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>12 months before 60 months follow up; 60 months; 60 months follow up; NA</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>FEP; NA</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>At least monthly use; no use; NA; previous year; at baseline and at 5 years follow-up; continued use; continud use; stoppers; starters; Schedule for Clinical Assestment in Neuropsychiatry</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y73" t="inlineStr">
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
+      <c r="Z72" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD73" t="inlineStr">
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD72" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
         <is>
           <t>colizzi_2016</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>any psychosis outcome</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Psychosis Population</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>cannabis use</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Athanassiou (2021)</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>maybe</t>
         </is>
       </c>
-      <c r="L74" t="inlineStr">
+      <c r="L73" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>Substance use, medication adherence and outcome one year following a_x000D_
 first episode of psychosis</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Participants were recruited as part of the Biomedical Research_x000D_
 Centre (BRC) Genetics and Psychosis (GAP) and the Physical Health_x000D_
@@ -9580,6 +9898,153 @@
 into the study; NA</t>
         </is>
       </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Johanna; NA</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>NA; 1 year; 1  year</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>nonaffective &amp; affective psychosis; NA</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Any; no use; Follow-up; NA; CEQ</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD73" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>degenhardt_2007</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>symptoms; any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Psychosis Population</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>cannabis use</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Zammit (2008); Athanassiou (2021)</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Degenhardt L, Tennant C, Gilmour S, Schofield D, Nash L, Hall W, McKay D. The temporal dynamics of relationships between cannabis, psychosis and depression among young adults with psychotic disorders: findings from a 10-month prospective study. Psychol Med 2007; 37: 1–8</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>should have been done by carolina</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>to check</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>within-subjects design, several measures of cannabis use and psychosis over 10 months, adjusted and unadjusted unstandardized betas; NA</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>Patients of the community mental health centres in the Northern Sydney Area Health Service; NA</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Johanna; NA</t>
@@ -9587,27 +10052,27 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA; doi:10.1017/S0033291707009956</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>NA; 1 year; 1  year</t>
+          <t>10 months; NA</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>nonaffective &amp; affective psychosis; NA</t>
+          <t>schizophrenia, schizophreniform disorder, schizoaffective disorder; NA</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Any; no use; Follow-up; NA; CEQ</t>
+          <t>any use; NA; monthly measures; number of days use</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>longitudinal prospective</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -9622,12 +10087,12 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z74" t="inlineStr">
@@ -9652,14 +10117,14 @@
       </c>
       <c r="AD74" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>degenhardt_2007</t>
+          <t>emsley_2020</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -9669,7 +10134,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>symptoms; any psychosis outcome</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -9684,7 +10149,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Zammit (2008); Athanassiou (2021)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -9692,69 +10157,54 @@
           <t>maybe</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>Degenhardt L, Tennant C, Gilmour S, Schofield D, Nash L, Hall W, McKay D. The temporal dynamics of relationships between cannabis, psychosis and depression among young adults with psychotic disorders: findings from a 10-month prospective study. Psychol Med 2007; 37: 1–8</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>should have been done by carolina</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>to check</t>
-        </is>
-      </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>within-subjects design, several measures of cannabis use and psychosis over 10 months, adjusted and unadjusted unstandardized betas; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Predictors of psychosis breakthrough during 24 months of long-acting antipsychotic maintenance treatment in first episode schizophrenia</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>Patients of the community mental health centres in the Northern Sydney Area Health Service; NA</t>
+          <t>inpatients and outpatients from Cape Town hospitals and community clinics; NA</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Johanna; NA</t>
+          <t>Carolina; NA</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>NA; doi:10.1017/S0033291707009956</t>
+          <t>NA; Emsley R, Asmal L, Rubio JM, et al. Predictors of psychosis break_x0002_through during 24 months of long-acting antipsychotic mainte_x0002_nance treatment in first episode schizophrenia. Schizophr Res. 2019. Available from. 10.1016/j.schres.2019.11.025.</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>10 months; NA</t>
+          <t>24 months; NA</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>schizophrenia, schizophreniform disorder, schizoaffective disorder; NA</t>
+          <t>FEP; NA</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>any use; NA; monthly measures; number of days use</t>
+          <t>Any use; Abstinent; NA; persistent use</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>longitudinal prospective</t>
+          <t>Cohort</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -9769,12 +10219,12 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z75" t="inlineStr">
@@ -9799,14 +10249,14 @@
       </c>
       <c r="AD75" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>emsley_2020</t>
+          <t>faridi_2012</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -9816,7 +10266,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>symptoms; relapse; any psychosis outcome</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -9826,12 +10276,12 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>cannabis use</t>
+          <t>continued use vs non-use; continued vs non use; continued vs non-use; cannabis use</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Schoeler(2016); Schoeler (2016); Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -9841,7 +10291,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>No</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -9851,42 +10301,42 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Predictors of psychosis breakthrough during 24 months of long-acting antipsychotic maintenance treatment in first episode schizophrenia</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>inpatients and outpatients from Cape Town hospitals and community clinics; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Carolina; NA</t>
+          <t>Kaito; NA</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>NA; Emsley R, Asmal L, Rubio JM, et al. Predictors of psychosis break_x0002_through during 24 months of long-acting antipsychotic mainte_x0002_nance treatment in first episode schizophrenia. Schizophr Res. 2019. Available from. 10.1016/j.schres.2019.11.025.</t>
+          <t>NA; Faridi K, Joober R, Malla A. Medication adherence mediates the impact of sustained cannabis use on symptom levels in first-episode psychosis. Available from Schizophr Res. 2012;1411:78–82.</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>24 months; NA</t>
+          <t>12 months; NA</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>FEP; NA</t>
+          <t>SZ, NPS, APS; NA</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Any use; Abstinent; NA; persistent use</t>
+          <t>Any; No use; NA; DSM-IV criteria for active cannabis use disorder, or polysubstance disorder involving cannabis, as determined by the SCID at baseline. And Drug Abuse Screening Test (DAST)</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -9906,17 +10356,17 @@
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AB76" t="inlineStr">
@@ -9931,14 +10381,14 @@
       </c>
       <c r="AD76" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>faridi_2012</t>
+          <t>fond_2019</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -9948,7 +10398,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>symptoms; relapse; any psychosis outcome</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -9958,12 +10408,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>continued use vs non-use; continued vs non use; continued vs non-use; cannabis use</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Schoeler(2016); Schoeler (2016); Athanassiou (2021)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -9973,7 +10423,7 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -9983,142 +10433,10 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Machine learning for predicting psychotic relapse at 2 years in schizophrenia in the national FACE-SZ cohort</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Kaito; NA</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>NA; Faridi K, Joober R, Malla A. Medication adherence mediates the impact of sustained cannabis use on symptom levels in first-episode psychosis. Available from Schizophr Res. 2012;1411:78–82.</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>12 months; NA</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>SZ, NPS, APS; NA</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>Any; No use; NA; DSM-IV criteria for active cannabis use disorder, or polysubstance disorder involving cannabis, as determined by the SCID at baseline. And Drug Abuse Screening Test (DAST)</t>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA77" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD77" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>fond_2019</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Psychosis Population</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>cannabis use</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>maybe</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Machine learning for predicting psychotic relapse at 2 years in schizophrenia in the national FACE-SZ cohort</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
         <is>
           <t>Consecutive clinically stable patients (defined by no hospitalization_x000D_
 and no treatment changes during the 8 weeks before evaluation)_x000D_
@@ -10126,84 +10444,134 @@
 schizoaffective disorder; NA</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>Johanna; NA</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
         <is>
           <t>NA; 2 years</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
         <is>
           <t>cannabis use disorder; no  cannabis use disorder; Follow-up; NA; SCID 1.0</t>
         </is>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD77" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
         <is>
           <t>foti_2010</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>any psychosis outcome</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Psychosis Population</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>cannabis use</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Athanassiou (2021)</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>maybe</t>
         </is>
       </c>
-      <c r="L79" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>No; Yes; NA</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
         <is>
           <t>Cannabis use and the course of schizophrenia: 10-year followup after first hospitalization</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>Data were obtained from the 229 individuals with DSM-IV research consensus diagnoses of_x000D_
 schizophrenia, schizoaffective disorder, or schizophreniform disorder participating in the_x000D_
@@ -10256,36 +10624,218 @@
 the inpatient units of the 12 psychiatric facilities in Suffolk County between 1989 and 2010; NA</t>
         </is>
       </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Johanna; NA</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>NA; 6 months; 2 years; 4 years; 10 years</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>schizophrenia, schizoaffective disorder, or schizophreniform disorder; NA</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>cannabis use; no use; NA; Follow-up; e Substance Use Disorders module of the SCID and items modeled on the National Household Survey on Drug Abuse interview</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>longitudinal prospective</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD78" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>grech_2005</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Psychosis Population</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>cannabis use</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Athanassiou (2021)</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>NA; In this row, about negative symtoms, we have different number of patients, notably sotppers and started if compared to positive symtoms (the reason is not clearified in the text )</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>Johanna; NA</t>
+          <t>Kaito; NA</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA; Grech A, Van Os J, Jones P, et al. Cannabis use and outcome of recent onset psychosis. 2005;20:349–353.Eur Psychiatry J of the Assoc ofEuropean Psychiatr</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>NA; 6 months; 2 years; 4 years; 10 years</t>
+          <t>48 months; NA</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>schizophrenia, schizoaffective disorder, or schizophreniform disorder; NA</t>
+          <t>SZ, NPS, APS; NA</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>cannabis use; no use; NA; Follow-up; e Substance Use Disorders module of the SCID and items modeled on the National Household Survey on Drug Abuse interview</t>
+          <t>Any; No use defined as Patients with no history of cannabis use at index or at follow-up; NA; Past 3 months; Continued use is defined as: Patients with history of cannabis use at index and use at follow-up; Stoppers defined as patients with history of cannabis use at index but no use at follow up; Starters defined as patients with no history of cannabis use at index and use at follow up; Semi-structured interview</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD79" t="inlineStr">
+        <is>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>grech_2005</t>
+          <t>hadden_2018</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -10320,174 +10870,42 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>NA; In this row, about negative symtoms, we have different number of patients, notably sotppers and started if compared to positive symtoms (the reason is not clearified in the text )</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Impact of comorbid cannabis use on outcome in first episode psychosis</t>
         </is>
       </c>
       <c r="O80" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Kaito; NA</t>
-        </is>
-      </c>
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>NA; Grech A, Van Os J, Jones P, et al. Cannabis use and outcome of recent onset psychosis. 2005;20:349–353.Eur Psychiatry J of the Assoc ofEuropean Psychiatr</t>
-        </is>
-      </c>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>48 months; NA</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>SZ, NPS, APS; NA</t>
-        </is>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>Any; No use defined as Patients with no history of cannabis use at index or at follow-up; NA; Past 3 months; Continued use is defined as: Patients with history of cannabis use at index and use at follow-up; Stoppers defined as patients with history of cannabis use at index but no use at follow up; Starters defined as patients with no history of cannabis use at index and use at follow up; Semi-structured interview</t>
-        </is>
-      </c>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AA80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD80" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>hadden_2018</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Psychosis Population</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>cannabis use</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>maybe</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>Impact of comorbid cannabis use on outcome in first episode psychosis</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
         <is>
           <t>192 consecutive admissions to the Psychosis Intervention and Early Recovery Program (PIER_x000D_
 program), a specialized interdisciplinary treatment_x000D_
 programme for patients with FEP; NA</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>Johanna; NA</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
         <is>
           <t>schiz_x0002_ophrenia or a schizophrenia spectrum disorder._x000D_
 Exclusionary criteria included patients diagnosed_x000D_
@@ -10496,114 +10914,114 @@
 brain injury); NA</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr">
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AD80" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+    <row r="81">
+      <c r="A81" t="inlineStr">
         <is>
           <t>hides_2006</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>relapse</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Psychosis Population</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>cannabis use</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Zammit (2008)</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>maybe</t>
         </is>
       </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>Psychotic symptom and cannabis relapse Psychotic symptom and cannabis relapse in recent-onset psychosis</t>
         </is>
       </c>
-      <c r="O82" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>Over a 7-month period from March to_x000D_
 October 2000, 121 patients consecutively_x000D_
@@ -10611,145 +11029,145 @@
 in Brisbane, Australia; NA</t>
         </is>
       </c>
-      <c r="P82" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>Johanna; NA</t>
         </is>
       </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
         <is>
           <t>schizophreniform or schizoaffective disorder, schizophrenia, delusional disor_x0002_der, substance-induced psychosis, depres- der, substance-induced psychosis, depres_x0002_sive, bipolar or mixed episode with psychotic features; NA</t>
         </is>
       </c>
-      <c r="T82" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>Days of cannabis use; NA</t>
         </is>
       </c>
-      <c r="U82" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>Cohort</t>
         </is>
       </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z82" t="inlineStr">
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD82" t="inlineStr">
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+    <row r="82">
+      <c r="A82" t="inlineStr">
         <is>
           <t>marino_2020</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>longitudinal</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>any psychosis outcome</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>Psychosis Population</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>cannabis use</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Athanassiou (2021)</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>maybe</t>
         </is>
       </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>NA; OR = log OR</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N82" t="inlineStr">
         <is>
           <t>Persistent cannabis use among young adults with early psychosis_x000D_
 receiving coordinated specialty care in the United States</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O82" t="inlineStr">
         <is>
           <t>individuals aged 16-30 years who experienced non-affective psychosis for less than 2 years; NA</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="P82" t="inlineStr">
         <is>
           <t>Carolina; NA</t>
         </is>
       </c>
-      <c r="Q83" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>NA; Marino L, Scodes J, Richkin T, et al. Persistent cannabis use among _x000D_
 young adults with early psychosis receiving coordinated specialty _x000D_
@@ -10757,6 +11175,138 @@
 Available from.</t>
         </is>
       </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>12 months; NA</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>FEP; NA</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Any use; no use; NA; no-use; past 90 days; admission to 1 year follow-up; persistent use; reduced use; Cannabis use: any use in the 90 days prior to admission; Persistent use: use at baseline and during 1-year follow-up; no use: never used cannabis (neither at admission or through the follow-up); reduced-use: used cannabis at admission, then discontinued use during the program</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>martínezarévalo_1994</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>relapse; any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Psychosis Population</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>cannabis use; continued vs non-use; continued vs discontinued use; discontinued vs non-use</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Zammit (2008); Schoeler (2016); Athanassiou (2021)</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>In this study Martinez analyses the probability of relapse relapse outcome combining cannabis pattern of consumption, stress and compliance. I didn't know how to fill cells, so see  at the end (adjusted factors); NA</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Kaito; NA</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>NA; Martinez-Arevalo MJ, Calcedo-Ordonez A, Varo-Prieto JR. Cannabis consumption as a prognostic factor in schizophrenia. Br J Psychiatry. 1994;164(5):679–681.</t>
+        </is>
+      </c>
       <c r="R83" t="inlineStr">
         <is>
           <t>12 months; NA</t>
@@ -10764,17 +11314,17 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>FEP; NA</t>
+          <t>SZ, SCZTPY , schizoid personality disorder, antisocial personality disorder, other personality disorder; NA</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Any use; no use; NA; no-use; past 90 days; admission to 1 year follow-up; persistent use; reduced use; Cannabis use: any use in the 90 days prior to admission; Persistent use: use at baseline and during 1-year follow-up; no use: never used cannabis (neither at admission or through the follow-up); reduced-use: used cannabis at admission, then discontinued use during the program</t>
+          <t>Any; Non consumers (THC -); NA; last 12 months; consumers (THC +) both before entering the study and at 12 months; THC + and THC +/-; THC +; former consumers (THC 1/-): consumers up to the start of study and abstinent during the follow up year; THC - and THC +/-; &gt; 2 times/week for &gt; 1 year</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -10789,17 +11339,17 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
@@ -10819,14 +11369,14 @@
       </c>
       <c r="AD83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>martínezarévalo_1994</t>
+          <t>negrete_1986</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -10846,12 +11396,12 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>cannabis use; continued vs non-use; continued vs discontinued use; discontinued vs non-use</t>
+          <t>continued vs non-use; continued vs discontinued use; discontinued vs non-use; cannabis use</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Zammit (2008); Schoeler (2016); Athanassiou (2021)</t>
+          <t>Schoeler (2016); Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -10866,7 +11416,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>In this study Martinez analyses the probability of relapse relapse outcome combining cannabis pattern of consumption, stress and compliance. I didn't know how to fill cells, so see  at the end (adjusted factors); NA</t>
+          <t>In the CU + Outcome cell, I decided to put the pourcentage of subject which presents the symtomes (it is in form of a sum of pourcentage beaucouse, as you can see in the table, they report delusional symtoms at two level of intensity (countinuous and transient). I did the same for the next row about hallucinations.; Here I extracted data about a subsample of patients aged less than 30 years, which is a more homogeneous group.; NA</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -10886,22 +11436,22 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>NA; Martinez-Arevalo MJ, Calcedo-Ordonez A, Varo-Prieto JR. Cannabis consumption as a prognostic factor in schizophrenia. Br J Psychiatry. 1994;164(5):679–681.</t>
+          <t>NA; Cannabis affects the severity of schizophrenic symptoms: results of a clinical survey</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>12 months; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>SZ, SCZTPY , schizoid personality disorder, antisocial personality disorder, other personality disorder; NA</t>
+          <t>SZ, NPS, APS; NA</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Any; Non consumers (THC -); NA; last 12 months; consumers (THC +) both before entering the study and at 12 months; THC + and THC +/-; THC +; former consumers (THC 1/-): consumers up to the start of study and abstinent during the follow up year; THC - and THC +/-; &gt; 2 times/week for &gt; 1 year</t>
+          <t>Any; Never-users; NA; Past 6 months; 6 months; active-users (during the 6 months follow up); Past-users (ceased consumption during 6 months follow up); Past-users (ceased consumption during the 6 months follow up); Interview + urine sample</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
@@ -10921,12 +11471,12 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr">
@@ -10941,24 +11491,24 @@
       </c>
       <c r="AB84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AD84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>negrete_1986</t>
+          <t>ouellet-plamondon_2017</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -10968,7 +11518,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>relapse; any psychosis outcome</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -10978,12 +11528,12 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>continued vs non-use; continued vs discontinued use; discontinued vs non-use; cannabis use</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Schoeler (2016); Athanassiou (2021)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -10993,162 +11543,30 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>In the CU + Outcome cell, I decided to put the pourcentage of subject which presents the symtomes (it is in form of a sum of pourcentage beaucouse, as you can see in the table, they report delusional symtoms at two level of intensity (countinuous and transient). I did the same for the next row about hallucinations.; Here I extracted data about a subsample of patients aged less than 30 years, which is a more homogeneous group.; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Specific impact of stimulant, alcohol and cannabis use disorders on first-episode psychosis: 2-year functional and symptomatic outcomes</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Outpatients admitted to Université de Monreal's Network of early Intervention programs; NA</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>Kaito; NA</t>
+          <t>Carolina; NA</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
-        <is>
-          <t>NA; Cannabis affects the severity of schizophrenic symptoms: results of a clinical survey</t>
-        </is>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>SZ, NPS, APS; NA</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>Any; Never-users; NA; Past 6 months; 6 months; active-users (during the 6 months follow up); Past-users (ceased consumption during 6 months follow up); Past-users (ceased consumption during the 6 months follow up); Interview + urine sample</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AD85" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>ouellet-plamondon_2017</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>Psychosis Population</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>cannabis use</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>maybe</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Specific impact of stimulant, alcohol and cannabis use disorders on first-episode psychosis: 2-year functional and symptomatic outcomes</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Outpatients admitted to Université de Monreal's Network of early Intervention programs; NA</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>Carolina; NA</t>
-        </is>
-      </c>
-      <c r="Q86" t="inlineStr">
         <is>
           <t>NA; Ouellet-Plamondon C, Abdel-Baki A, Salvat E, et al. Specific impact _x000D_
 of stimulant, alcohol and cannabis use disorders on first-episode _x000D_
@@ -11156,19 +11574,151 @@
 Med. 2017;44(14):2513–2521</t>
         </is>
       </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>12 months; 24 months; NA</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>FEP; NA</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>any use; no use; NA; at admission; At admission; Admission to 1 year follow-up; Admission to 2 year follow-up; Persistent use; DUS (Drug use scale)</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD85" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>rentero_2020</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Psychosis Population</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>cannabis use</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Athanassiou (2021)</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Carolina; NA</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>NA; Rentero D, Arias F, Sánchez-Romero S, et al. Cannabis-induced psychosis: clinical characteristics and its differentiation from schi_x0002_zophrenia with and without cannabis use. Adicciones. 2016;29 (2):105–112.</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>12 months; 24 months; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>FEP; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>any use; no use; NA; at admission; At admission; Admission to 1 year follow-up; Admission to 2 year follow-up; Persistent use; DUS (Drug use scale)</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
@@ -11193,7 +11743,7 @@
       </c>
       <c r="Y86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z86" t="inlineStr">
@@ -11218,14 +11768,14 @@
       </c>
       <c r="AD86" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>rentero_2020</t>
+          <t>rømerthomsen_2018</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -11265,159 +11815,27 @@
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1. Type of analyses: Time-to event analyses (Fine and Gray Method) time to event calculated as number of days since first admission to Registry of drug abusers Undergoin Treatment. 2. for multivariable analysis: based on log-trasformed value of the independent variable to adjust for skew; NA</t>
         </is>
       </c>
       <c r="N87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>Carolina; NA</t>
-        </is>
-      </c>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>NA; Rentero D, Arias F, Sánchez-Romero S, et al. Cannabis-induced psychosis: clinical characteristics and its differentiation from schi_x0002_zophrenia with and without cannabis use. Adicciones. 2016;29 (2):105–112.</t>
-        </is>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y87" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD87" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>rømerthomsen_2018</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Psychosis Population</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>cannabis use</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>maybe</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>1. Type of analyses: Time-to event analyses (Fine and Gray Method) time to event calculated as number of days since first admission to Registry of drug abusers Undergoin Treatment. 2. for multivariable analysis: based on log-trasformed value of the independent variable to adjust for skew; NA</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
         <is>
           <t>Drug-related _x000D_
 predictors of readmission for schizophrenia among patients _x000D_
 admitted to treatment for drug use disorders</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>Danish community outpatients from the Danish Central Psychiatric Research Register and Registry of drug abusers Undergoin Treatment; NA</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>Carolina; NA</t>
         </is>
       </c>
-      <c r="Q88" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>NA; Rømer Thomsen K, Thylstrup B, Pedersen MM, et al. Drug-related _x000D_
 predictors of readmission for schizophrenia among patients _x000D_
@@ -11425,24 +11843,156 @@
 2018;195:495–500. Available from.</t>
         </is>
       </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>2000-2013; NA</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>SCZ; NA</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>NA; At admission</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD87" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>san_2013</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>relapse</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Psychosis Population</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>continued vs non-use</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Schoeler (2016)</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Both</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>NA; in this analysis the total number correspond to patients under atypical drugs depot (n=827); in this analysis the total number correspond to patients under drugs oral route (n=645); in this analysis the total number correspond to patients under typical drugs depot (n=120)</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Kaito; NA</t>
+        </is>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>NA; L. San et al, Factors associated with relapse in patients with schizophrenia</t>
+        </is>
+      </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>2000-2013; NA</t>
+          <t>12 months; NA</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>SCZ; NA</t>
+          <t>SZ, NPS; NA</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>NA; At admission</t>
+          <t>Any; NA; no cannabis use; art 3 years; Self-reported/retrieved data from database?</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -11457,7 +12007,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -11467,7 +12017,7 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
@@ -11487,14 +12037,14 @@
       </c>
       <c r="AD88" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>san_2013</t>
+          <t>seddon_2016</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -11504,7 +12054,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -11514,12 +12064,12 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>continued vs non-use</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Schoeler (2016)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -11527,14 +12077,24 @@
           <t>maybe</t>
         </is>
       </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Seddon JL, Birchwood M, Copello A, et al. Cannabis use is associated with increased psychotic symptoms and poorer psy_x0002_chosocial functioning in first-episode psychosis: a report from the UK National EDEN study. Schizophr Bull. 2016;42 (3):619–625.</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>same as seddon 2016</t>
+        </is>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Both</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>NA; in this analysis the total number correspond to patients under atypical drugs depot (n=827); in this analysis the total number correspond to patients under drugs oral route (n=645); in this analysis the total number correspond to patients under typical drugs depot (n=120)</t>
+          <t>each subject provided information on the effect of cannabis at both time points, plus any additional effects of cannabis at the 1-year follow-up (through fitting an interaction between phase and cannabis use).; NA</t>
         </is>
       </c>
       <c r="N89" t="inlineStr">
@@ -11544,17 +12104,17 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>National EDEN project; NA</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>Kaito; NA</t>
+          <t>Johanna; NA</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>NA; L. San et al, Factors associated with relapse in patients with schizophrenia</t>
+          <t>NA; 10.1093/schbul/sbv154</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
@@ -11563,148 +12123,6 @@
         </is>
       </c>
       <c r="S89" t="inlineStr">
-        <is>
-          <t>SZ, NPS; NA</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>Any; NA; no cannabis use; art 3 years; Self-reported/retrieved data from database?</t>
-        </is>
-      </c>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="AA89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD89" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>seddon_2016</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>longitudinal</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>any psychosis outcome</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Psychosis Population</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>cannabis use</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021)</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>maybe</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>Seddon JL, Birchwood M, Copello A, et al. Cannabis use is associated with increased psychotic symptoms and poorer psy_x0002_chosocial functioning in first-episode psychosis: a report from the UK National EDEN study. Schizophr Bull. 2016;42 (3):619–625.</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>same as seddon 2016</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>each subject provided information on the effect of cannabis at both time points, plus any additional effects of cannabis at the 1-year follow-up (through fitting an interaction between phase and cannabis use).; NA</t>
-        </is>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>National EDEN project; NA</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>Johanna; NA</t>
-        </is>
-      </c>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>NA; 10.1093/schbul/sbv154</t>
-        </is>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>12 months; NA</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
         <is>
           <t>Diagnosis, n (%)_x000D_
  Schizophrenia 227 (22)_x000D_
@@ -11713,9 +12131,141 @@
  Unknown diagnosis 215 (21); NA</t>
         </is>
       </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>any use x Phase; NA; cannabis x phase; Kavanagh Drug Check scale</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Cohort</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AD89" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>setién-suero_2019</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>longitudinal</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>any psychosis outcome</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Psychosis Population</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>cannabis use</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Athanassiou (2021)</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>maybe</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>Johanna</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Johanna; NA</t>
+        </is>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>NA; 10 years</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>any use x Phase; NA; cannabis x phase; Kavanagh Drug Check scale</t>
+          <t>NA; never use; longitudinal; continued use; discontinued use</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -11735,7 +12285,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -11765,14 +12315,14 @@
       </c>
       <c r="AD90" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>setién-suero_2019</t>
+          <t>sorbara_2003</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -11782,7 +12332,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>relapse; any psychosis outcome</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -11792,12 +12342,12 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>cannabis use</t>
+          <t>continued vs non-use; cannabis use</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Schoeler (2016); Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -11807,17 +12357,17 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>notice that in this paper they compare no users with substance users (composed by 6 only cannabis users and 3 polysubstance users, defined as cannabis 1 another substance; NA</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>Johanna</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -11827,32 +12377,32 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>Johanna; NA</t>
+          <t>Kaito; NA</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>NA; Sorbara et al, Substance use and the course of early psychosis: a 2-year follow-up of first-admitted subjects</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>NA; 10 years</t>
+          <t>24 months; NA</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>SZ, NPS, APS; NA</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>NA; never use; longitudinal; continued use; discontinued use</t>
+          <t>Any; no use; NA; during the 24 months follow-up; abuse/dependance (DSM-IV)</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -11867,17 +12417,17 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
@@ -11897,14 +12447,14 @@
       </c>
       <c r="AD91" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>sorbara_2003</t>
+          <t>stirling_2005</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -11914,7 +12464,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>relapse; any psychosis outcome</t>
+          <t>symptoms</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -11924,12 +12474,12 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>continued vs non-use; cannabis use</t>
+          <t>cannabis use</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Schoeler (2016); Athanassiou (2021)</t>
+          <t>Zammit (2008)</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -11939,12 +12489,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>notice that in this paper they compare no users with substance users (composed by 6 only cannabis users and 3 polysubstance users, defined as cannabis 1 another substance; NA</t>
+          <t>In this paper I can't find row values thant can be useful. There are just some p values…It seems to reference to another paper ( stirling 2003 ) in whitch they report some more findings..; NA</t>
         </is>
       </c>
       <c r="N92" t="inlineStr">
@@ -11964,22 +12514,22 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>NA; Sorbara et al, Substance use and the course of early psychosis: a 2-year follow-up of first-admitted subjects</t>
+          <t>NA; John Stirling et al. Cannabis use prior to first onset psychosis predicts spared neurocognition at 10-year follow-up</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>24 months; NA</t>
+          <t>10 years; NA</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>SZ, NPS, APS; NA</t>
+          <t>"mainly schizophrenia"; NA</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Any; no use; NA; during the 24 months follow-up; abuse/dependance (DSM-IV)</t>
+          <t>Any; no use (not clearly defined); NA; during the 10 year follow up (not clear); some use; self reported on a six-point scale</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
@@ -11999,7 +12549,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -12024,19 +12574,19 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AD92" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>stirling_2005</t>
+          <t>stone_2014</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -12046,7 +12596,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>symptoms</t>
+          <t>any psychosis outcome</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -12061,7 +12611,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Zammit (2008)</t>
+          <t>Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -12071,52 +12621,54 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>In this paper I can't find row values thant can be useful. There are just some p values…It seems to reference to another paper ( stirling 2003 ) in whitch they report some more findings..; NA</t>
+          <t>Comments for lines from 3 to 12: means and SD about ANOVA analysis are not reported.; NA</t>
         </is>
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cannabis use and first-episode psychosis: relationship with manic and psychotic symptoms, and with age at presentation</t>
         </is>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Out-patients from sevent London-based Early Intervention in psychosis teams; NA</t>
         </is>
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Kaito; NA</t>
+          <t>Carolina; NA</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>NA; John Stirling et al. Cannabis use prior to first onset psychosis predicts spared neurocognition at 10-year follow-up</t>
+          <t>NA; Stone JM, Fisher HL, Major B, et al. Cannabis use and first-episode _x000D_
+psychosis: relationship with manic and psychotic symptoms, and _x000D_
+with age at presentation. Psychol Med. 2014;44(3):499–506.</t>
         </is>
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>10 years; NA</t>
+          <t>12 months; NA</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>"mainly schizophrenia"; NA</t>
+          <t>Out of the 271 first-episode patients with follow-up data, 221 (81%) had a diagnosis of schizophrenia or schizophreniform psychosis, 27 (10%) had a diagnosis of bipolar affective disorder, 13 (5%) had a diagnosis of depressive psychosis, and in 10 (4%), the diagnosis was not recorded. Of those with a final diagnosis of bipolar affective disorder, nine (34%) and seven (26%) were classified as being cannabis abusers and cannabis users, respectively, at baseline.; FEP</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Any; no use (not clearly defined); NA; during the 10 year follow up (not clear); some use; self reported on a six-point scale</t>
+          <t>Any use; Abstinence; Abstinent; NA; Past 6 months; persistent use; reduced use; Alcohol and drug scale</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cohort</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -12131,17 +12683,17 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
@@ -12156,19 +12708,19 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD93" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>stone_2014</t>
+          <t>vandermeer_2015</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -12178,7 +12730,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>any psychosis outcome</t>
+          <t>relapse; any psychosis outcome</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -12188,12 +12740,12 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>cannabis use</t>
+          <t>continued vs non-use; continued vs discontinued use; discontinued vs non-use; cannabis use</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Athanassiou (2021)</t>
+          <t>Schoeler (2016); Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -12203,54 +12755,52 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>no; Yes</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>Comments for lines from 3 to 12: means and SD about ANOVA analysis are not reported.; NA</t>
+          <t>NA; Note that these results are from suppementary material in the internet. The regression coefficient is F in the table</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>Cannabis use and first-episode psychosis: relationship with manic and psychotic symptoms, and with age at presentation</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>Out-patients from sevent London-based Early Intervention in psychosis teams; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>Carolina; NA</t>
+          <t>Kaito; NA</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>NA; Stone JM, Fisher HL, Major B, et al. Cannabis use and first-episode _x000D_
-psychosis: relationship with manic and psychotic symptoms, and _x000D_
-with age at presentation. Psychol Med. 2014;44(3):499–506.</t>
+          <t>NA; F. J. van der Meer et al. Course of cannabis use and clinical outcome in patients with non-affective psychosis: a 3-year follow-up study</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>12 months; NA</t>
+          <t>36 months; NA</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Out of the 271 first-episode patients with follow-up data, 221 (81%) had a diagnosis of schizophrenia or schizophreniform psychosis, 27 (10%) had a diagnosis of bipolar affective disorder, 13 (5%) had a diagnosis of depressive psychosis, and in 10 (4%), the diagnosis was not recorded. Of those with a final diagnosis of bipolar affective disorder, nine (34%) and seven (26%) were classified as being cannabis abusers and cannabis users, respectively, at baseline.; FEP</t>
+          <t>SZ, NPS; NA</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Any use; Abstinence; Abstinent; NA; Past 6 months; persistent use; reduced use; Alcohol and drug scale</t>
+          <t>Any (more or less than weekly); no use (never used cannabis); early discontinuation (stop cannabis within the first 3 years of psychosis onset); NA; During 36 months follow-up; persistent = patients who had used cannabis more than five times lifetimeprior to baseline and more than five times betweek baseline and 36 months follow-up; discontenued= patients who had used cannabis more than five times lifetime prior to baseline but who did not use cannabis at all dur- ing the 3-year follow-up;; Later discontinuation= patients stopping using cannabis later than first 3 years from psychosis inset; Assestes by comprehensive International Diagnostic Interview + urine test at baseline and 36 months' follow-up</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>Cohort</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -12270,12 +12820,12 @@
       </c>
       <c r="Y94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
@@ -12295,24 +12845,24 @@
       </c>
       <c r="AD94" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>vandermeer_2015</t>
+          <t>vandijk_2012</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>cross-sectional and longitudinal; longitudinal</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>relapse; any psychosis outcome</t>
+          <t>symptoms; relapse; any psychosis outcome</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -12322,12 +12872,12 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>continued vs non-use; continued vs discontinued use; discontinued vs non-use; cannabis use</t>
+          <t>current cannabis users; recent cannabis abstainers; continued vs non-use; cannabis use</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Schoeler (2016); Athanassiou (2021)</t>
+          <t>Sabe (2020); Schoeler (2016); Athanassiou (2021)</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -12337,52 +12887,52 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>no; Yes</t>
+          <t>NA; Yes; propsecitve</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>NA; Note that these results are from suppementary material in the internet. The regression coefficient is F in the table</t>
+          <t>NA; 0.376; 0.48199999999999998; 0.35599999999999998; 0.60599999999999998; 3.5000000000000003E-2; 0.32100000000000001</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Effect of cannabis use on the course of schizophrenia in male patients: A prospective cohort study; NA</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Male Dutch patients with in treatment/just starting treatment recruited through mental health care institutions and GPs; NA</t>
         </is>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>Kaito; NA</t>
+          <t>Molly &amp; Johanna; Molly Dawson; NA</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>NA; F. J. van der Meer et al. Course of cannabis use and clinical outcome in patients with non-affective psychosis: a 3-year follow-up study</t>
+          <t>NA; Effect of cannabis use on the course of schizophrenia in male patients: A prospective cohot study</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>36 months; NA</t>
+          <t>NA; 0; 12 months</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>SZ, NPS; NA</t>
+          <t>schizophrenia, schizophreniform disorder or schizoaffective disorder; NA</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>Any (more or less than weekly); no use (never used cannabis); early discontinuation (stop cannabis within the first 3 years of psychosis onset); NA; During 36 months follow-up; persistent = patients who had used cannabis more than five times lifetimeprior to baseline and more than five times betweek baseline and 36 months follow-up; discontenued= patients who had used cannabis more than five times lifetime prior to baseline but who did not use cannabis at all dur- ing the 3-year follow-up;; Later discontinuation= patients stopping using cannabis later than first 3 years from psychosis inset; Assestes by comprehensive International Diagnostic Interview + urine test at baseline and 36 months' follow-up</t>
+          <t>NA; more than once a month cannabis use; no cannbis use during the study; Baseline; Follow-up; CAS/ASU and CASH interview</t>
         </is>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cross-sectional</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -12402,17 +12952,17 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AB95" t="inlineStr">
@@ -12422,29 +12972,29 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="AD95" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>10</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>vandijk_2012</t>
+          <t>wade_2006</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>cross-sectional and longitudinal; longitudinal</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>symptoms; relapse; any psychosis outcome</t>
+          <t>relapse</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -12454,12 +13004,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>current cannabis users; recent cannabis abstainers; continued vs non-use; cannabis use</t>
+          <t>cannabis use; continued vs non-use</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Sabe (2020); Schoeler (2016); Athanassiou (2021)</t>
+          <t>Zammit (2008); Schoeler (2016)</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -12469,52 +13019,52 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>NA; Yes; propsecitve</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>NA; 0.376; 0.48199999999999998; 0.35599999999999998; 0.60599999999999998; 3.5000000000000003E-2; 0.32100000000000001</t>
+          <t>Here the total number of subject is 103. Then, in the fors row I only extract cannabis consummers after remission (40), In the second row I extracted cannabis consummers (43). In general alla analysis were adjusted for confouding factors: gender, age, psychotic disorder (schizofrenia spectrum or other psychosis, DUP, and medication compliance); NA</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>Effect of cannabis use on the course of schizophrenia in male patients: A prospective cohort study; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>Male Dutch patients with in treatment/just starting treatment recruited through mental health care institutions and GPs; NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Molly &amp; Johanna; Molly Dawson; NA</t>
+          <t>Kaito; NA</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>NA; Effect of cannabis use on the course of schizophrenia in male patients: A prospective cohot study</t>
+          <t>NA; D. WADE et al, Substance misuse in first-episode psychosis: 15-month prospective follow-up study</t>
         </is>
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>NA; 0; 12 months</t>
+          <t>15 months; NA</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>schizophrenia, schizophreniform disorder or schizoaffective disorder; NA</t>
+          <t>SZ, NPS, APS; NA</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>NA; more than once a month cannabis use; no cannbis use during the study; Baseline; Follow-up; CAS/ASU and CASH interview</t>
+          <t>Cannabis misuse (mild or heavy on the base of CUAD score.; NA; Chemical Use, Abuse and Dependence Scale (CUAD) : DSM-III-R</t>
         </is>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>Cross-sectional</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -12534,17 +13084,17 @@
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AB96" t="inlineStr">
@@ -12554,99 +13104,99 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AD96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>wade_2006</t>
+          <t>schoeler_2016</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>longitudinal; prospective cohort</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>relapse</t>
+          <t>any psychosis outcome; Environmental Moderators</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Psychosis Population</t>
+          <t>Psychosis Population; Environmental Moderators</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>cannabis use; continued vs non-use</t>
+          <t>cannabis use; Age of first use</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Zammit (2008); Schoeler (2016)</t>
+          <t>Athanassiou (2021); Petrilli(2022)</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>maybe</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>Here the total number of subject is 103. Then, in the fors row I only extract cannabis consummers after remission (40), In the second row I extracted cannabis consummers (43). In general alla analysis were adjusted for confouding factors: gender, age, psychotic disorder (schizofrenia spectrum or other psychosis, DUP, and medication compliance); NA</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Poor medication adherence and risk of relapse associated with continued cannabis use in patients with first-episode psychosis: a prospective analysis</t>
         </is>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Adult inpatients and outpatients units of the South London and Maudsley Health National health service Fondation Trust in London; NA</t>
         </is>
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>Kaito; NA</t>
+          <t>Carolina; NA</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>NA; D. WADE et al, Substance misuse in first-episode psychosis: 15-month prospective follow-up study</t>
+          <t>NA; Schoeler T, Petros N, Di Forti M, et al. Poor medication adherence and risk of relapse associated with continued cannabis use in patients with first-episode psychosis: a prospective analysis. Lancet Psychiatry . 2017;4(8):627–633. Available from: http://dx. doi.org/10.1016/S2215-0366(17)30233-X.</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>15 months; NA</t>
+          <t>24 months; NA</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>SZ, NPS, APS; NA</t>
+          <t>FEP; NA</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>Cannabis misuse (mild or heavy on the base of CUAD score.; NA; Chemical Use, Abuse and Dependence Scale (CUAD) : DSM-III-R</t>
+          <t>any use; never regular use; NA; At admission; Admission to 24 months ollow-up; continued user; intermittent user; Modified version of the cannabis eexperience Questionnaire (CEQmv)</t>
         </is>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>Cohort</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -12666,12 +13216,12 @@
       </c>
       <c r="Y97" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>1</t>
         </is>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
@@ -12690,138 +13240,6 @@
         </is>
       </c>
       <c r="AD97" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>schoeler_2016</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>longitudinal; prospective cohort</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>any psychosis outcome; Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>Psychosis Population; Environmental Moderators</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>cannabis use; Age of first use</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Athanassiou (2021); Petrilli(2022)</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N98" t="inlineStr">
-        <is>
-          <t>Poor medication adherence and risk of relapse associated with continued cannabis use in patients with first-episode psychosis: a prospective analysis</t>
-        </is>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>Adult inpatients and outpatients units of the South London and Maudsley Health National health service Fondation Trust in London; NA</t>
-        </is>
-      </c>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>Carolina; NA</t>
-        </is>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>NA; Schoeler T, Petros N, Di Forti M, et al. Poor medication adherence and risk of relapse associated with continued cannabis use in patients with first-episode psychosis: a prospective analysis. Lancet Psychiatry . 2017;4(8):627–633. Available from: http://dx. doi.org/10.1016/S2215-0366(17)30233-X.</t>
-        </is>
-      </c>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>24 months; NA</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>FEP; NA</t>
-        </is>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>any use; never regular use; NA; At admission; Admission to 24 months ollow-up; continued user; intermittent user; Modified version of the cannabis eexperience Questionnaire (CEQmv)</t>
-        </is>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>Cohort</t>
-        </is>
-      </c>
-      <c r="V98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="X98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AD98" t="inlineStr">
         <is>
           <t>9</t>
         </is>
